--- a/docs/Arquivos_técnicos/Product Backlog.xlsx
+++ b/docs/Arquivos_técnicos/Product Backlog.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="backlog sprint" sheetId="1" r:id="rId1"/>
-    <sheet name="backlog geral" sheetId="3" r:id="rId2"/>
+    <sheet name="backlog geral" sheetId="3" r:id="rId1"/>
+    <sheet name="backlog sprint" sheetId="1" r:id="rId2"/>
     <sheet name="us's" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -335,9 +335,6 @@
     <t xml:space="preserve">SPRINT 2 </t>
   </si>
   <si>
-    <t>Reorganização do github, começar a escrever os codigos em HTML e entrega pelo menos a pagina HOME completa</t>
-  </si>
-  <si>
     <t>SPRINT 3</t>
   </si>
   <si>
@@ -396,6 +393,189 @@
   </si>
   <si>
     <t>Organização do nosso trello final</t>
+  </si>
+  <si>
+    <t>MODERADA</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuario jornalista quero poder ver a participação do SUS no período indicado.</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Criação do Product Backlog</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Reorganização do github, começar a escrever os codigos em HTML e entrega pelo menos a pagina HOME completa e raspagem de dados</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuario, quero ver as informações sobre o processo, produto final e os autores envolvidos neste projeto.</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Wireframe navegavel</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuario jornalista, quero uma interface navegavel de facil acesso.</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>Estar visualmente bom e entendivel pra qualquer pessoa fora do projeto entenda o que estamos realizando</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>Criação da pagina home</t>
+  </si>
+  <si>
+    <t>21h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina home com design próximo do final e visível para quem quiser acessar o nosso site. </t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário parte da equipe de desenvolvimento tenho que entregar a página home completa, usando  HTML e CSS.</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>Pesquisa sobre sintomas da covid longa</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero vizualizar os sintomas causados sobre a covid longa</t>
+  </si>
+  <si>
+    <t>Tabela com dados sobre os sintomas causados pela covid longa</t>
+  </si>
+  <si>
+    <t>Relação entre antes, durante e pós covid</t>
+  </si>
+  <si>
+    <t>Raspagem de dados</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário parte da equipe de desenvolvimento tenho que entregar raspagem de dados do datasus, usando  Python.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero vizualizar relação entre as hospitalizações no periodo antes, durante e pós covid</t>
+  </si>
+  <si>
+    <t>Grafico do periodo das intenações</t>
+  </si>
+  <si>
+    <t>Informações adquiridas da raspagem de dados.</t>
+  </si>
+  <si>
+    <t>Criação do site (resto das paginas menos a HOME)</t>
+  </si>
+  <si>
+    <t>28h</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário equipe de desenvolvimento quero criar as paginas do site usando HTML e CSS.</t>
+  </si>
+  <si>
+    <t>Criação do site navegavel (mesmo que localmente) usando HTML e CSS.</t>
+  </si>
+  <si>
+    <t>O site funcionando mesmo que sem o design final</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Entrega do design final do site</t>
+  </si>
+  <si>
+    <t>Eu enquanto parte da equipe de desenvolvimento irei fazer o design final do site usando HTML e CSS</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuario jornalista quero entrar no site e acha as informações que eu preciso através dos filtros.</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>42h</t>
+  </si>
+  <si>
+    <t>Design final do design do site</t>
+  </si>
+  <si>
+    <t>Site com um design bom e com uma aparecia agradavel</t>
+  </si>
+  <si>
+    <t>Filtros de busca dentro do site</t>
+  </si>
+  <si>
+    <t>Filtros funcionando em todas as categorias</t>
+  </si>
+  <si>
+    <t>Implementação de filtros</t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Site pronto rodando</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário cliente quero o site sobre a covid longa rodando com todas as informações que foram pedidas anteriormente.</t>
+  </si>
+  <si>
+    <t>Site pronto para a entrega</t>
+  </si>
+  <si>
+    <t>Funcionando com tudo que trabalhamos ao longo dessas 4 sprints</t>
   </si>
 </sst>
 </file>
@@ -438,7 +618,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +646,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -560,9 +788,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,39 +809,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,6 +896,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -932,10 +1209,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="H8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,217 +1369,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
+      <c r="B3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="22">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="B5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
+      <c r="B8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="22">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="B9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="22">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
+      <c r="B10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="22">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1170,252 +1604,495 @@
       <c r="E10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
+      <c r="B11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
+      <c r="B12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="22">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="24">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="24">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="37">
+        <v>3</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="37">
+        <v>3</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="36">
+        <v>4</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="36">
+        <v>4</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -1509,27 +2186,15 @@
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1537,119 +2202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="D11" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +2217,7 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1687,7 +2245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1701,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1715,7 +2273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1729,7 +2287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1743,7 +2301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1757,7 +2315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +2329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +2343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +2357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -1813,7 +2371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +2379,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1829,7 +2387,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1837,13 +2395,85 @@
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1862,15 +2492,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D72695BD12AADF40A07E38033AA0BFDD" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="43017b6a3dd76934e858049f202b8f37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ff402b9-e86b-46fc-b67f-02c5a45d865e" xmlns:ns3="8a541ec5-5174-4d84-b55d-e8e4b286cca6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98bce754b6a58c8cfbf1b5d7ffd1a5e9" ns2:_="" ns3:_="">
     <xsd:import namespace="0ff402b9-e86b-46fc-b67f-02c5a45d865e"/>
@@ -2053,6 +2674,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C14311-AF31-4A87-8B0A-FF7A8288EBFA}">
   <ds:schemaRefs>
@@ -2065,14 +2695,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5EB892B-8FDC-47A4-A9E7-AB2D87F6DB58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53D72D3C-B827-434A-838F-0B8EFA9C999A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2089,4 +2711,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5EB892B-8FDC-47A4-A9E7-AB2D87F6DB58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Arquivos_técnicos/Product Backlog.xlsx
+++ b/docs/Arquivos_técnicos/Product Backlog.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="146">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -311,24 +311,6 @@
     </r>
   </si>
   <si>
-    <t>Eu enquanto usuario jornalista quero comparar ano a ano as consultas entre os anos de 2019-2022</t>
-  </si>
-  <si>
-    <t>Eu enquanto usuario jornalista quero comparar ano a ano os tratamentos e medicamentos entre os anos de 2019-2022</t>
-  </si>
-  <si>
-    <t>Eu enquanto usuario jornalista quero comparar ano a ano os procedimentos entre os anos de 2019-2022</t>
-  </si>
-  <si>
-    <t>Eu enquanto usuario jornalista, quero relacionar essa variação com algum(ns) fator(es) ligado(s) à covid-19.</t>
-  </si>
-  <si>
-    <t>Eu enquanto usuario Jornalista, quero poder visualizar o aumento em consultas, procedimentos, tratamentos ou medicamentos utilizados em pacientes com covid longa e visualizar os itens que tiveram aumento.</t>
-  </si>
-  <si>
-    <t>Eu enquanto usuario quero poder ver a quantia investida/gasta nesses procedimentos</t>
-  </si>
-  <si>
     <t>PRIORIDADE</t>
   </si>
   <si>
@@ -404,9 +386,6 @@
     <t>ALTA</t>
   </si>
   <si>
-    <t>Eu enquanto usuario jornalista quero poder ver a participação do SUS no período indicado.</t>
-  </si>
-  <si>
     <t>US09</t>
   </si>
   <si>
@@ -419,18 +398,12 @@
     <t>Reorganização do github, começar a escrever os codigos em HTML e entrega pelo menos a pagina HOME completa e raspagem de dados</t>
   </si>
   <si>
-    <t>Eu enquanto usuario, quero ver as informações sobre o processo, produto final e os autores envolvidos neste projeto.</t>
-  </si>
-  <si>
     <t>US10</t>
   </si>
   <si>
     <t>Wireframe navegavel</t>
   </si>
   <si>
-    <t>Eu enquanto usuario jornalista, quero uma interface navegavel de facil acesso.</t>
-  </si>
-  <si>
     <t>14h</t>
   </si>
   <si>
@@ -576,13 +549,46 @@
   </si>
   <si>
     <t>Funcionando com tudo que trabalhamos ao longo dessas 4 sprints</t>
+  </si>
+  <si>
+    <t>Banco de dados do nosso projeto.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário membro da equipe de desenvolvimento quero fazer uma raspagem de dados no site do datasus tabnet</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero comparar ano a ano as consultas entre os anos de 2019-2022</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero comparar ano a ano os procedimentos entre os anos de 2019-2022</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero comparar ano a ano os tratamentos e medicamentos entre os anos de 2019-2022</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista, quero relacionar essa variação com algum(ns) fator(es) ligado(s) à covid-19.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário Jornalista, quero poder visualizar o aumento em consultas, procedimentos, tratamentos ou medicamentos utilizados em pacientes com covid longa e visualizar os itens que tiveram aumento.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário quero poder ver a quantia investida/gasta nesses procedimentos</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista quero poder ver a participação do SUS no período indicado.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário, quero ver as informações sobre o processo, produto final e os autores envolvidos neste projeto.</t>
+  </si>
+  <si>
+    <t>Eu enquanto usuário jornalista, quero uma interface navegavel de facil acesso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +622,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -762,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,6 +853,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,44 +904,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,115 +1243,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="H8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="H8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
+      <c r="H9" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="H10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1352,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,24 +1385,24 @@
     <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>2</v>
@@ -1411,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1420,10 +1437,10 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>16</v>
@@ -1437,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -1446,10 +1463,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>16</v>
@@ -1463,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -1472,10 +1489,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>16</v>
@@ -1489,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -1498,10 +1515,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>16</v>
@@ -1515,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -1524,10 +1541,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>16</v>
@@ -1541,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -1550,7 +1567,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1567,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
@@ -1576,10 +1593,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>16</v>
@@ -1593,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C10" s="22">
         <v>1</v>
@@ -1602,10 +1619,10 @@
         <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>16</v>
@@ -1619,7 +1636,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
@@ -1628,10 +1645,10 @@
         <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>16</v>
@@ -1645,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="22">
         <v>1</v>
@@ -1654,7 +1671,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>14</v>
@@ -1668,25 +1685,25 @@
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>17</v>
@@ -1694,23 +1711,23 @@
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>17</v>
@@ -1718,61 +1735,61 @@
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C17" s="24">
         <v>2</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>17</v>
@@ -1780,25 +1797,25 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C18" s="24">
         <v>2</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>17</v>
@@ -1806,25 +1823,25 @@
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C19" s="24">
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>17</v>
@@ -1832,25 +1849,25 @@
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C20" s="24">
         <v>2</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>17</v>
@@ -1858,227 +1875,233 @@
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C21" s="24">
         <v>2</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="29"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="37">
+      <c r="G23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="28">
         <v>3</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="D24" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="37">
-        <v>3</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
       <c r="H24" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="29"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="36">
+        <v>79</v>
+      </c>
+      <c r="C26" s="27">
         <v>4</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>138</v>
+      <c r="D26" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="36">
+        <v>79</v>
+      </c>
+      <c r="C27" s="27">
         <v>4</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>140</v>
+      <c r="D27" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H27" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -2405,10 +2428,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -2416,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -2424,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -2440,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -2448,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -2456,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -2464,7 +2487,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -2472,7 +2495,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2492,6 +2515,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D72695BD12AADF40A07E38033AA0BFDD" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="43017b6a3dd76934e858049f202b8f37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ff402b9-e86b-46fc-b67f-02c5a45d865e" xmlns:ns3="8a541ec5-5174-4d84-b55d-e8e4b286cca6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98bce754b6a58c8cfbf1b5d7ffd1a5e9" ns2:_="" ns3:_="">
     <xsd:import namespace="0ff402b9-e86b-46fc-b67f-02c5a45d865e"/>
@@ -2674,15 +2706,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C14311-AF31-4A87-8B0A-FF7A8288EBFA}">
   <ds:schemaRefs>
@@ -2695,6 +2718,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5EB892B-8FDC-47A4-A9E7-AB2D87F6DB58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53D72D3C-B827-434A-838F-0B8EFA9C999A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2711,12 +2742,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5EB892B-8FDC-47A4-A9E7-AB2D87F6DB58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>